--- a/VR Karting/Results/514.xlsx
+++ b/VR Karting/Results/514.xlsx
@@ -3,26 +3,29 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="20" yWindow="760" windowWidth="14700" windowHeight="19160" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="920" yWindow="760" windowWidth="22960" windowHeight="19160" tabRatio="600" firstSheet="0" activeTab="8" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="PRE" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Session 2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Session 1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Mini 1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Mini 2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Word Accuracies" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Contrast Accuracies" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Session 3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Session 1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Mini 1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Mini 2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Word Accuracies" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Mini 3" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="MID" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Contrast Accuracies" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="181029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="맑은 고딕"/>
       <charset val="129"/>
@@ -39,6 +42,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="2"/>
+      <b val="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
       <b val="1"/>
     </font>
   </fonts>
@@ -50,12 +60,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -70,11 +95,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1547,6 +1575,111 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>CONTRAST</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Session 1</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Session 2</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Session 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ɛ vs. æ</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ɪ vs. iː</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6071428571428571</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ʊ vs. uː</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ʌ vs. ɑ</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6785714285714286</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -1555,7 +1688,7 @@
   </sheetPr>
   <dimension ref="A1:C112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A94" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -3023,6 +3156,1481 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C112"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I66" sqref="I66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>1.85936</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1.599731</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1.749283</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>5.258255</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>4.137299</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1.981873</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1.675232</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1.733002</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>3.919495</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>1.670624</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>3.292053</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>3.257751</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>1.187531</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>1.547211</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>2.656708</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1.362061</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>3.80127</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>2.100067</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>1.384399</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>3.964691</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>1.3461</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>3.917694</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>1.442078</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>2.902649</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>1.65509</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>4.258636</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>1.04129</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>1.066833</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>2.002655</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>1.239136</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>1.568329</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>1.81897</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>2.712494</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>3.515167</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>3.000793</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>1.803345</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>2.016052</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>2.763428</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>3.152222</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>0.8533325</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>1.520203</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>2.792725</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>0.6313477</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>2.836975</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>0.5708008</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>1.398499</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>1.617737</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>1.379883</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>1.635376</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>1.41748</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>2.315613</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>1.994934</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>3.325806</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>1.24054</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>1.078735</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>3.059326</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>2.161419</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>1.630997</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>1.124722</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>1.382286</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>1.98925</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>1.206951</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>1.689217</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>4.113029</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>0.8454666</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>1.249992</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>2.624893</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>1.672913</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>3.31694</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>1.504135</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>3.875504</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>2.778336</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>1.586792</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>1.704346</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>4.012741</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>1.406845</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>1.33783</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>2.535965</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>4.226135</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>1.267349</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>2.261765</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>3.500977</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>2.902084</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>2.600433</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>1.550522</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>1.644806</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>1.794708</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>3.489471</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>1.748444</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>4.132782</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>1.276428</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>1.39267</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>1.088074</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>4.028748</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>4.300598</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>2.022003</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>2.900269</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>2.21701</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>1.583893</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>0.8489075</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>0.9277954</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>2.102692</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>1.266174</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>2.640594</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>0.8937378</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>0.8723755</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>2.107422</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>1.334839</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>2.271027</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>2.189941</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>2.044891</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3769,7 +5377,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3868,7 +5476,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3967,13 +5575,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3982,19 +5590,24 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>WORD</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Session 1</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Session 2</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Session 3</t>
         </is>
       </c>
     </row>
@@ -4010,6 +5623,9 @@
       <c r="C2" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D2" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
@@ -4023,6 +5639,9 @@
       <c r="C3" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="D3" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
@@ -4036,6 +5655,9 @@
       <c r="C4" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="D4" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
@@ -4049,6 +5671,9 @@
       <c r="C5" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="D5" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
@@ -4062,6 +5687,9 @@
       <c r="C6" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D6" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
@@ -4075,6 +5703,9 @@
       <c r="C7" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D7" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
@@ -4088,6 +5719,9 @@
       <c r="C8" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D8" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
@@ -4101,6 +5735,9 @@
       <c r="C9" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D9" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
@@ -4114,6 +5751,9 @@
       <c r="C10" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="D10" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
@@ -4127,6 +5767,9 @@
       <c r="C11" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D11" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
@@ -4140,6 +5783,9 @@
       <c r="C12" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="D12" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
@@ -4153,6 +5799,9 @@
       <c r="C13" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D13" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="inlineStr">
@@ -4166,6 +5815,9 @@
       <c r="C14" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D14" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="inlineStr">
@@ -4179,6 +5831,9 @@
       <c r="C15" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D15" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="inlineStr">
@@ -4192,6 +5847,9 @@
       <c r="C16" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="D16" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="inlineStr">
@@ -4205,6 +5863,9 @@
       <c r="C17" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="D17" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="inlineStr">
@@ -4218,6 +5879,9 @@
       <c r="C18" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D18" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="inlineStr">
@@ -4231,6 +5895,9 @@
       <c r="C19" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="D19" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="inlineStr">
@@ -4244,6 +5911,9 @@
       <c r="C20" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D20" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="inlineStr">
@@ -4257,6 +5927,9 @@
       <c r="C21" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D21" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="inlineStr">
@@ -4270,6 +5943,9 @@
       <c r="C22" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D22" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="inlineStr">
@@ -4283,6 +5959,9 @@
       <c r="C23" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="D23" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="inlineStr">
@@ -4296,6 +5975,9 @@
       <c r="C24" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="D24" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="inlineStr">
@@ -4309,6 +5991,9 @@
       <c r="C25" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D25" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="inlineStr">
@@ -4322,6 +6007,9 @@
       <c r="C26" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D26" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="inlineStr">
@@ -4335,6 +6023,9 @@
       <c r="C27" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="D27" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="inlineStr">
@@ -4348,6 +6039,9 @@
       <c r="C28" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="D28" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="inlineStr">
@@ -4361,6 +6055,9 @@
       <c r="C29" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="D29" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="inlineStr">
@@ -4374,6 +6071,9 @@
       <c r="C30" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="D30" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="inlineStr">
@@ -4387,6 +6087,9 @@
       <c r="C31" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D31" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="inlineStr">
@@ -4400,6 +6103,9 @@
       <c r="C32" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="D32" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="inlineStr">
@@ -4413,6 +6119,9 @@
       <c r="C33" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="D33" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="inlineStr">
@@ -4426,6 +6135,9 @@
       <c r="C34" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D34" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="inlineStr">
@@ -4439,6 +6151,9 @@
       <c r="C35" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D35" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="inlineStr">
@@ -4452,6 +6167,9 @@
       <c r="C36" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="D36" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="inlineStr">
@@ -4465,6 +6183,9 @@
       <c r="C37" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D37" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="inlineStr">
@@ -4478,6 +6199,9 @@
       <c r="C38" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="D38" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="inlineStr">
@@ -4491,6 +6215,9 @@
       <c r="C39" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D39" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="inlineStr">
@@ -4504,6 +6231,9 @@
       <c r="C40" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="D40" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="inlineStr">
@@ -4517,6 +6247,9 @@
       <c r="C41" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="D41" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="inlineStr">
@@ -4530,6 +6263,9 @@
       <c r="C42" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D42" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="inlineStr">
@@ -4543,6 +6279,9 @@
       <c r="C43" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D43" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="inlineStr">
@@ -4556,6 +6295,9 @@
       <c r="C44" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="D44" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="inlineStr">
@@ -4569,6 +6311,9 @@
       <c r="C45" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D45" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="inlineStr">
@@ -4582,6 +6327,9 @@
       <c r="C46" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D46" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="inlineStr">
@@ -4595,6 +6343,9 @@
       <c r="C47" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="D47" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="inlineStr">
@@ -4608,6 +6359,9 @@
       <c r="C48" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D48" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="inlineStr">
@@ -4621,6 +6375,9 @@
       <c r="C49" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D49" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="inlineStr">
@@ -4634,6 +6391,9 @@
       <c r="C50" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D50" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="inlineStr">
@@ -4647,6 +6407,9 @@
       <c r="C51" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D51" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="inlineStr">
@@ -4660,6 +6423,9 @@
       <c r="C52" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="D52" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="inlineStr">
@@ -4673,6 +6439,9 @@
       <c r="C53" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D53" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="inlineStr">
@@ -4686,6 +6455,9 @@
       <c r="C54" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="D54" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="inlineStr">
@@ -4699,6 +6471,9 @@
       <c r="C55" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D55" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="inlineStr">
@@ -4712,6 +6487,9 @@
       <c r="C56" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D56" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="inlineStr">
@@ -4723,6 +6501,9 @@
         <v>1</v>
       </c>
       <c r="C57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4731,90 +6512,2280 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>CONTRAST</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Session 1</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Session 2</t>
-        </is>
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>ɛ vs. æ</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.7142857142857143</v>
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ɪ vs. iː</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.5714285714285714</v>
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ʊ vs. uː</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.8571428571428571</v>
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ʌ vs. ɑ</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.7857142857142857</v>
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C144"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C26" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C27" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C28" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C30" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C32" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C35" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C45" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C48" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C52" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C53" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C54" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C55" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C57" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C63" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C67" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C68" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C70" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C72" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C73" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C76" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C77" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C79" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C80" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C81" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C82" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C85" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C86" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C87" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C88" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C92" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C93" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C94" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C95" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C96" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C99" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C100" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C101" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C102" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C103" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C104" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C105" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C106" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C107" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C108" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C109" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C110" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C111" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C112" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B113" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C113" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B114" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C114" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B115" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C115" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B116" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C116" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B117" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C117" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B118" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C118" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B119" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C119" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B120" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C120" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B121" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C121" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B122" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C122" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B123" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C123" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B124" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C124" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B125" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C125" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B126" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C126" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B127" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C127" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B128" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C128" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B129" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C129" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B130" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C130" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B131" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C131" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B132" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C132" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B133" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C133" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B134" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C134" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B135" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C135" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B136" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C136" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B137" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C137" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B138" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C138" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B139" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C139" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B140" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C140" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B141" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C141" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B142" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C142" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B143" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C143" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B144" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C144" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/VR Karting/Results/514.xlsx
+++ b/VR Karting/Results/514.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="920" yWindow="760" windowWidth="22960" windowHeight="19160" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3100" yWindow="760" windowWidth="22960" windowHeight="19160" tabRatio="600" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="PRE" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,13 +11,15 @@
     <sheet name="Session 3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Session 4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Mini 4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Session 1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Mini 1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Mini 2" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Word Accuracies" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Mini 3" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="MID" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Contrast Accuracies" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Session 5" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Mini 5" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Session 1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Mini 1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Mini 2" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Word Accuracies" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Mini 3" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="MID" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Contrast Accuracies" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -1586,6 +1588,1388 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>WORD</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Session 1</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Session 2</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Session 3</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Session 4</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Session 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -1676,7 +3060,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3855,13 +5239,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3895,6 +5279,11 @@
           <t>Session 4</t>
         </is>
       </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Session 5</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -3914,6 +5303,9 @@
       <c r="E2" t="n">
         <v>0.75</v>
       </c>
+      <c r="F2" t="n">
+        <v>0.7142857142857143</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3933,6 +5325,9 @@
       <c r="E3" t="n">
         <v>0.8571428571428571</v>
       </c>
+      <c r="F3" t="n">
+        <v>0.7857142857142857</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3952,6 +5347,9 @@
       <c r="E4" t="n">
         <v>0.8571428571428571</v>
       </c>
+      <c r="F4" t="n">
+        <v>0.7142857142857143</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3970,6 +5368,9 @@
       </c>
       <c r="E5" t="n">
         <v>0.8571428571428571</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.7142857142857143</v>
       </c>
     </row>
   </sheetData>
@@ -8410,8 +9811,8 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -8502,6 +9903,1580 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C112"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>1.402933</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>2.423708</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0.8218498</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1.018398</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.6184577999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1.442822</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1.972225</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1.74942</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.5266953</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>1.493088</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.5035324</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>1.453857</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>1.432159</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>2.065475</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1.945259</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>2.71582</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0.7953949</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>-0.6231689</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0.5667877</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0.605835</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>0.7713318</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>0.6370087</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>0.7244872999999999</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0.9960175</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>0.6007233</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>1.046204</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>2.467239</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>1.611923</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0.5108795</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0.7526093</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>1.774887</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0.7135010000000001</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>0.690506</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>2.025818</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>1.011627</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0.6168213</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>0.572998</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0.7512817000000001</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>0.9336243</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>3.652924</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>1.140594</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>1.529938</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>0.5693359</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>0.5622864</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>0.1469421</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>0.672699</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>1.357513</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>0.8793029999999999</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>-0.2506104</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>0.1688538</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>0.1661987</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>1.929688</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>0.4790039</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>0.7211303999999999</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>1.526459</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>-0.4413757</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>1.535667</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>1.202873</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>0.627243</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>0.5814896000000001</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>0.1329727</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>0.1389465</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>0.7140579</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>0.7341003</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>1.734283</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>0.3228607</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>0.2857056</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>3.036453</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>0.7345734</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>0.7217255</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>1.442215</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>0.9086303999999999</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>0.05596924</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>-0.03007507</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>1.703644</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>2.157959</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>2.219864</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>0.4169922</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>2.074188</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>-0.9920502</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>-0.9011688</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>0.5984802</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>1.249634</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>0.2032166</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>0.578949</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>0.5002441</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>1.695251</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>0.7528686999999999</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>-0.2570801</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>0.2388306</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>3.724487</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>1.747498</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>0.5755005</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>1.559204</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>-0.1410828</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>0.6969604</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>0.924408</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>-0.7926025</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>7.589966</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>1.500793</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>1.390167</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>1.580536</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>1.254272</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>1.546844</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>0.5741882</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>0.818512</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>0.3642883</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>-0.05160522</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>0.3930969</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>0.4954529</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>0.4515076</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>0.3570251</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9248,7 +12223,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9345,1213 +12320,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="inlineStr">
-        <is>
-          <t>ten</t>
-        </is>
-      </c>
-      <c r="B1" s="0" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>sub</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="inlineStr">
-        <is>
-          <t>bull</t>
-        </is>
-      </c>
-      <c r="B3" s="0" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="inlineStr">
-        <is>
-          <t>sob</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="inlineStr">
-        <is>
-          <t>tan</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="inlineStr">
-        <is>
-          <t>cheap</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="inlineStr">
-        <is>
-          <t>Boole</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="inlineStr">
-        <is>
-          <t>chip</t>
-        </is>
-      </c>
-      <c r="B8" s="0" t="b">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E57"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>WORD</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Session 1</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Session 2</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Session 3</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>Session 4</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>bat</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="inlineStr">
-        <is>
-          <t>bet</t>
-        </is>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="inlineStr">
-        <is>
-          <t>Boole</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="inlineStr">
-        <is>
-          <t>bot</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="inlineStr">
-        <is>
-          <t>bull</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="inlineStr">
-        <is>
-          <t>but</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="inlineStr">
-        <is>
-          <t>can</t>
-        </is>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="inlineStr">
-        <is>
-          <t>cheap</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="inlineStr">
-        <is>
-          <t>chip</t>
-        </is>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="inlineStr">
-        <is>
-          <t>cooed</t>
-        </is>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="inlineStr">
-        <is>
-          <t>cot</t>
-        </is>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="inlineStr">
-        <is>
-          <t>could</t>
-        </is>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="inlineStr">
-        <is>
-          <t>cut</t>
-        </is>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="inlineStr">
-        <is>
-          <t>each</t>
-        </is>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="inlineStr">
-        <is>
-          <t>field</t>
-        </is>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="inlineStr">
-        <is>
-          <t>filled</t>
-        </is>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="inlineStr">
-        <is>
-          <t>fond</t>
-        </is>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="inlineStr">
-        <is>
-          <t>fool</t>
-        </is>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0" t="inlineStr">
-        <is>
-          <t>full</t>
-        </is>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0" t="inlineStr">
-        <is>
-          <t>fund</t>
-        </is>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0" t="inlineStr">
-        <is>
-          <t>grin</t>
-        </is>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0" t="inlineStr">
-        <is>
-          <t>hot</t>
-        </is>
-      </c>
-      <c r="B24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0" t="inlineStr">
-        <is>
-          <t>hut</t>
-        </is>
-      </c>
-      <c r="B25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0" t="inlineStr">
-        <is>
-          <t>itch</t>
-        </is>
-      </c>
-      <c r="B26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0" t="inlineStr">
-        <is>
-          <t>Ken</t>
-        </is>
-      </c>
-      <c r="B27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C27" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0" t="inlineStr">
-        <is>
-          <t>least</t>
-        </is>
-      </c>
-      <c r="B28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0" t="inlineStr">
-        <is>
-          <t>list</t>
-        </is>
-      </c>
-      <c r="B29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E29" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0" t="inlineStr">
-        <is>
-          <t>look</t>
-        </is>
-      </c>
-      <c r="B30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0" t="inlineStr">
-        <is>
-          <t>Luke</t>
-        </is>
-      </c>
-      <c r="B31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0" t="inlineStr">
-        <is>
-          <t>man</t>
-        </is>
-      </c>
-      <c r="B32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C32" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" s="0" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0" t="inlineStr">
-        <is>
-          <t>mat</t>
-        </is>
-      </c>
-      <c r="B33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E33" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0" t="inlineStr">
-        <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="B34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D34" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E34" s="0" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0" t="inlineStr">
-        <is>
-          <t>met</t>
-        </is>
-      </c>
-      <c r="B35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" s="0" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="B36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C36" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0" t="inlineStr">
-        <is>
-          <t>nut</t>
-        </is>
-      </c>
-      <c r="B37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" s="0" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0" t="inlineStr">
-        <is>
-          <t>pat</t>
-        </is>
-      </c>
-      <c r="B38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E38" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0" t="inlineStr">
-        <is>
-          <t>pet</t>
-        </is>
-      </c>
-      <c r="B39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D39" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E39" s="0" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0" t="inlineStr">
-        <is>
-          <t>pool</t>
-        </is>
-      </c>
-      <c r="B40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C40" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D40" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E40" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0" t="inlineStr">
-        <is>
-          <t>pop</t>
-        </is>
-      </c>
-      <c r="B41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C41" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E41" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0" t="inlineStr">
-        <is>
-          <t>pull</t>
-        </is>
-      </c>
-      <c r="B42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0" t="inlineStr">
-        <is>
-          <t>pup</t>
-        </is>
-      </c>
-      <c r="B43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D43" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E43" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0" t="inlineStr">
-        <is>
-          <t>reach</t>
-        </is>
-      </c>
-      <c r="B44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E44" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0" t="inlineStr">
-        <is>
-          <t>rich</t>
-        </is>
-      </c>
-      <c r="B45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D45" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E45" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="B46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E46" s="0" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0" t="inlineStr">
-        <is>
-          <t>scene</t>
-        </is>
-      </c>
-      <c r="B47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E47" s="0" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0" t="inlineStr">
-        <is>
-          <t>set</t>
-        </is>
-      </c>
-      <c r="B48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0" t="inlineStr">
-        <is>
-          <t>shooed</t>
-        </is>
-      </c>
-      <c r="B49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D49" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E49" s="0" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0" t="inlineStr">
-        <is>
-          <t>should</t>
-        </is>
-      </c>
-      <c r="B50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D50" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E50" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0" t="inlineStr">
-        <is>
-          <t>sin</t>
-        </is>
-      </c>
-      <c r="B51" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C51" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D51" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E51" s="0" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0" t="inlineStr">
-        <is>
-          <t>sob</t>
-        </is>
-      </c>
-      <c r="B52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C52" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D52" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E52" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0" t="inlineStr">
-        <is>
-          <t>sub</t>
-        </is>
-      </c>
-      <c r="B53" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E53" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0" t="inlineStr">
-        <is>
-          <t>tan</t>
-        </is>
-      </c>
-      <c r="B54" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C54" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D54" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E54" s="0" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0" t="inlineStr">
-        <is>
-          <t>ten</t>
-        </is>
-      </c>
-      <c r="B55" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D55" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E55" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="0" t="inlineStr">
-        <is>
-          <t>wooed</t>
-        </is>
-      </c>
-      <c r="B56" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C56" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D56" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E56" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="0" t="inlineStr">
-        <is>
-          <t>would</t>
-        </is>
-      </c>
-      <c r="B57" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C57" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D57" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E57" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/VR Karting/Results/514.xlsx
+++ b/VR Karting/Results/514.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3100" yWindow="760" windowWidth="22960" windowHeight="19160" tabRatio="600" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3100" yWindow="760" windowWidth="22960" windowHeight="19160" tabRatio="600" firstSheet="0" activeTab="8" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="PRE" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,13 +13,15 @@
     <sheet name="Mini 4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Session 5" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="Mini 5" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Session 1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Mini 1" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Mini 2" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Word Accuracies" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Mini 3" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="MID" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Contrast Accuracies" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Session 6" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Mini 6" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Session 1" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Mini 1" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Mini 2" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Word Accuracies" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Mini 3" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="MID" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Contrast Accuracies" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -1585,10 +1587,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1596,81 +1598,729 @@
     <row r="1">
       <c r="A1" s="0" t="inlineStr">
         <is>
-          <t>ten</t>
+          <t>list</t>
         </is>
       </c>
       <c r="B1" s="0" t="b">
         <v>0</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>11.00801</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>sub</t>
+          <t>fund</t>
         </is>
       </c>
       <c r="B2" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>2.364532</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>bull</t>
+          <t>fond</t>
         </is>
       </c>
       <c r="B3" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0.9211273</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>sob</t>
+          <t>each</t>
         </is>
       </c>
       <c r="B4" s="0" t="b">
         <v>1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1.343369</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>tan</t>
+          <t>could</t>
         </is>
       </c>
       <c r="B5" s="0" t="b">
         <v>1</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>1.576721</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>cheap</t>
+          <t>pat</t>
         </is>
       </c>
       <c r="B6" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1.905289</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>Boole</t>
+          <t>chip</t>
         </is>
       </c>
       <c r="B7" s="0" t="b">
         <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>2.833435</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>chip</t>
+          <t>bull</t>
         </is>
       </c>
       <c r="B8" s="0" t="b">
         <v>1</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1.813446</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>3.889618</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>2.06485</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>1.932404</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>1.587219</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>5.213165</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0.3713379</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1.625183</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0.9069214</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>2.523315</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>1.701172</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>1.779541</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>1.536469</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>1.741058</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>0.7493286</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>1.492798</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0.6715088</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>0.5974121</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>0.8335266</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>1.05957</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>1.770508</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>2.003357</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0.9517212</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>1.290222</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>1.953247</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>2.566284</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>1.124695</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>0.8657227</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>4.842407</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>1.809265</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>1.204163</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>1.641357</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>9.753235</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>2.567993</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>0.2918091</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>3.612122</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>0.9214478</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>3.469177</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>0.7059936999999999</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>1.088806</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>1.292725</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>0.664856</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>5.237854</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>1.441833</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>3.379028</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>0.4440308</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>0.3869019</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>1.417419</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>2.01825</v>
       </c>
     </row>
   </sheetData>
@@ -1684,7 +2334,205 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1723,6 +2571,11 @@
           <t>Session 5</t>
         </is>
       </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Session 6</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
@@ -1745,6 +2598,9 @@
       <c r="F2" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G2" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
@@ -1767,6 +2623,9 @@
       <c r="F3" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G3" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
@@ -1789,6 +2648,9 @@
       <c r="F4" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G4" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
@@ -1811,6 +2673,9 @@
       <c r="F5" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G5" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
@@ -1833,6 +2698,9 @@
       <c r="F6" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G6" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
@@ -1855,6 +2723,9 @@
       <c r="F7" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G7" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
@@ -1877,6 +2748,9 @@
       <c r="F8" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G8" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
@@ -1899,6 +2773,9 @@
       <c r="F9" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G9" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
@@ -1921,6 +2798,9 @@
       <c r="F10" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G10" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
@@ -1943,6 +2823,9 @@
       <c r="F11" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G11" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
@@ -1965,6 +2848,9 @@
       <c r="F12" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="G12" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
@@ -1987,6 +2873,9 @@
       <c r="F13" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G13" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="inlineStr">
@@ -2009,6 +2898,9 @@
       <c r="F14" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G14" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="inlineStr">
@@ -2031,6 +2923,9 @@
       <c r="F15" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G15" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="inlineStr">
@@ -2053,6 +2948,9 @@
       <c r="F16" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G16" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="inlineStr">
@@ -2075,6 +2973,9 @@
       <c r="F17" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G17" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="inlineStr">
@@ -2097,6 +2998,9 @@
       <c r="F18" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G18" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="inlineStr">
@@ -2119,6 +3023,9 @@
       <c r="F19" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G19" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="inlineStr">
@@ -2141,6 +3048,9 @@
       <c r="F20" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G20" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="inlineStr">
@@ -2163,6 +3073,9 @@
       <c r="F21" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G21" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="inlineStr">
@@ -2185,6 +3098,9 @@
       <c r="F22" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G22" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="inlineStr">
@@ -2207,6 +3123,9 @@
       <c r="F23" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G23" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="inlineStr">
@@ -2229,6 +3148,9 @@
       <c r="F24" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G24" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="inlineStr">
@@ -2251,6 +3173,9 @@
       <c r="F25" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G25" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="inlineStr">
@@ -2273,6 +3198,9 @@
       <c r="F26" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G26" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="inlineStr">
@@ -2295,6 +3223,9 @@
       <c r="F27" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G27" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="inlineStr">
@@ -2317,6 +3248,9 @@
       <c r="F28" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G28" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="inlineStr">
@@ -2339,6 +3273,9 @@
       <c r="F29" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G29" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="inlineStr">
@@ -2361,6 +3298,9 @@
       <c r="F30" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G30" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="inlineStr">
@@ -2383,6 +3323,9 @@
       <c r="F31" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G31" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="inlineStr">
@@ -2405,6 +3348,9 @@
       <c r="F32" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G32" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="inlineStr">
@@ -2427,6 +3373,9 @@
       <c r="F33" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="G33" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="inlineStr">
@@ -2449,6 +3398,9 @@
       <c r="F34" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G34" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="inlineStr">
@@ -2471,6 +3423,9 @@
       <c r="F35" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G35" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="inlineStr">
@@ -2493,6 +3448,9 @@
       <c r="F36" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G36" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="inlineStr">
@@ -2515,6 +3473,9 @@
       <c r="F37" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G37" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="inlineStr">
@@ -2537,6 +3498,9 @@
       <c r="F38" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G38" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="inlineStr">
@@ -2559,6 +3523,9 @@
       <c r="F39" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G39" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="inlineStr">
@@ -2581,6 +3548,9 @@
       <c r="F40" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G40" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="inlineStr">
@@ -2603,6 +3573,9 @@
       <c r="F41" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G41" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="inlineStr">
@@ -2625,6 +3598,9 @@
       <c r="F42" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="G42" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="inlineStr">
@@ -2647,6 +3623,9 @@
       <c r="F43" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G43" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="inlineStr">
@@ -2669,6 +3648,9 @@
       <c r="F44" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G44" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="inlineStr">
@@ -2691,6 +3673,9 @@
       <c r="F45" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G45" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="inlineStr">
@@ -2713,6 +3698,9 @@
       <c r="F46" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G46" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="inlineStr">
@@ -2735,6 +3723,9 @@
       <c r="F47" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G47" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="inlineStr">
@@ -2757,6 +3748,9 @@
       <c r="F48" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G48" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="inlineStr">
@@ -2779,6 +3773,9 @@
       <c r="F49" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G49" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="inlineStr">
@@ -2801,6 +3798,9 @@
       <c r="F50" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G50" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="inlineStr">
@@ -2823,6 +3823,9 @@
       <c r="F51" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G51" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="inlineStr">
@@ -2845,6 +3848,9 @@
       <c r="F52" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G52" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="inlineStr">
@@ -2867,6 +3873,9 @@
       <c r="F53" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G53" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="inlineStr">
@@ -2889,6 +3898,9 @@
       <c r="F54" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G54" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="inlineStr">
@@ -2911,6 +3923,9 @@
       <c r="F55" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G55" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="inlineStr">
@@ -2933,6 +3948,9 @@
       <c r="F56" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G56" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="inlineStr">
@@ -2954,6 +3972,9 @@
       </c>
       <c r="F57" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="G57" s="0" t="n">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -2961,7 +3982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3060,7 +4081,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5239,13 +6260,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5284,6 +6305,11 @@
           <t>Session 5</t>
         </is>
       </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Session 6</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -5306,6 +6332,9 @@
       <c r="F2" t="n">
         <v>0.7142857142857143</v>
       </c>
+      <c r="G2" t="n">
+        <v>0.7857142857142857</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -5328,6 +6357,9 @@
       <c r="F3" t="n">
         <v>0.7857142857142857</v>
       </c>
+      <c r="G3" t="n">
+        <v>0.6428571428571429</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -5350,6 +6382,9 @@
       <c r="F4" t="n">
         <v>0.7142857142857143</v>
       </c>
+      <c r="G4" t="n">
+        <v>0.8928571428571429</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -5370,6 +6405,9 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="F5" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G5" t="n">
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -11385,7 +12423,7 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -11482,10 +12520,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C112"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -11493,508 +12531,508 @@
     <row r="1">
       <c r="A1" s="0" t="inlineStr">
         <is>
-          <t>list</t>
+          <t>cheap</t>
         </is>
       </c>
       <c r="B1" s="0" t="b">
         <v>0</v>
       </c>
       <c r="C1" s="0" t="n">
-        <v>11.00801</v>
+        <v>3.599411</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>filled</t>
         </is>
       </c>
       <c r="B2" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>2.364532</v>
+        <v>0.8085861</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>fond</t>
+          <t>least</t>
         </is>
       </c>
       <c r="B3" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>0.9211273</v>
+        <v>1.894516</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>each</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="B4" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>1.343369</v>
+        <v>1.837891</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>could</t>
+          <t>pup</t>
         </is>
       </c>
       <c r="B5" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>1.576721</v>
+        <v>1.633438</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>pat</t>
+          <t>list</t>
         </is>
       </c>
       <c r="B6" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>1.905289</v>
+        <v>3.071808</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>chip</t>
+          <t>bet</t>
         </is>
       </c>
       <c r="B7" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>2.833435</v>
+        <v>1.251007</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>bull</t>
+          <t>cot</t>
         </is>
       </c>
       <c r="B8" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>1.813446</v>
+        <v>1.235092</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>set</t>
+          <t>full</t>
         </is>
       </c>
       <c r="B9" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>3.889618</v>
+        <v>2.659958</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>pool</t>
+          <t>but</t>
         </is>
       </c>
       <c r="B10" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>2.06485</v>
+        <v>1.527481</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
         <is>
-          <t>bot</t>
+          <t>sob</t>
         </is>
       </c>
       <c r="B11" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>1.932404</v>
+        <v>0.5500946</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
         <is>
-          <t>Ken</t>
+          <t>man</t>
         </is>
       </c>
       <c r="B12" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>1.587219</v>
+        <v>1.992325</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
         <is>
-          <t>grin</t>
+          <t>men</t>
         </is>
       </c>
       <c r="B13" s="0" t="b">
         <v>0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>5.213165</v>
+        <v>0.858139</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="inlineStr">
         <is>
-          <t>look</t>
+          <t>pat</t>
         </is>
       </c>
       <c r="B14" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>0.3713379</v>
+        <v>1.231506</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="inlineStr">
         <is>
-          <t>wooed</t>
+          <t>rich</t>
         </is>
       </c>
       <c r="B15" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>1.625183</v>
+        <v>0.7423096</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="inlineStr">
         <is>
-          <t>tan</t>
+          <t>hut</t>
         </is>
       </c>
       <c r="B16" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>0.9069214</v>
+        <v>0.5760803</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="inlineStr">
         <is>
-          <t>but</t>
+          <t>grin</t>
         </is>
       </c>
       <c r="B17" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>2.523315</v>
+        <v>1.785324</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="inlineStr">
         <is>
-          <t>bat</t>
+          <t>field</t>
         </is>
       </c>
       <c r="B18" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>1.701172</v>
+        <v>5.661057</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="inlineStr">
         <is>
-          <t>fool</t>
+          <t>can</t>
         </is>
       </c>
       <c r="B19" s="0" t="b">
         <v>0</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>1.779541</v>
+        <v>0.7488403</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="inlineStr">
         <is>
-          <t>can</t>
+          <t>cut</t>
         </is>
       </c>
       <c r="B20" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>1.536469</v>
+        <v>0.7678528</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="inlineStr">
         <is>
-          <t>shooed</t>
+          <t>set</t>
         </is>
       </c>
       <c r="B21" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>1.741058</v>
+        <v>0.4759827</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="inlineStr">
         <is>
-          <t>sob</t>
+          <t>green</t>
         </is>
       </c>
       <c r="B22" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>0.7493286</v>
+        <v>2.209717</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>Boole</t>
         </is>
       </c>
       <c r="B23" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>1.492798</v>
+        <v>1.595612</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="inlineStr">
         <is>
-          <t>Boole</t>
+          <t>pet</t>
         </is>
       </c>
       <c r="B24" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>0.6715088</v>
+        <v>0.546875</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="inlineStr">
         <is>
-          <t>cot</t>
+          <t>chip</t>
         </is>
       </c>
       <c r="B25" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>0.5974121</v>
+        <v>3.775574</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="inlineStr">
         <is>
-          <t>least</t>
+          <t>scene</t>
         </is>
       </c>
       <c r="B26" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>0.8335266</v>
+        <v>0.5680542</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="inlineStr">
         <is>
-          <t>cheap</t>
+          <t>Ken</t>
         </is>
       </c>
       <c r="B27" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>1.05957</v>
+        <v>2.357056</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="inlineStr">
         <is>
-          <t>hot</t>
+          <t>nut</t>
         </is>
       </c>
       <c r="B28" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>1.770508</v>
+        <v>-0.05551147</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="inlineStr">
         <is>
-          <t>man</t>
+          <t>met</t>
         </is>
       </c>
       <c r="B29" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>2.003357</v>
+        <v>1.094666</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>pop</t>
         </is>
       </c>
       <c r="B30" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>0.9517212</v>
+        <v>0.6385497999999999</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="inlineStr">
         <is>
-          <t>sin</t>
+          <t>not</t>
         </is>
       </c>
       <c r="B31" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>1.290222</v>
+        <v>1.800659</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="inlineStr">
         <is>
-          <t>rich</t>
+          <t>should</t>
         </is>
       </c>
       <c r="B32" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>1.953247</v>
+        <v>0.4215698</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="inlineStr">
         <is>
-          <t>bet</t>
+          <t>look</t>
         </is>
       </c>
       <c r="B33" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>2.566284</v>
+        <v>1.424255</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="inlineStr">
         <is>
-          <t>cut</t>
+          <t>sub</t>
         </is>
       </c>
       <c r="B34" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>1.124695</v>
+        <v>0.5468445</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="inlineStr">
         <is>
-          <t>filled</t>
+          <t>bull</t>
         </is>
       </c>
       <c r="B35" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>0.8657227</v>
+        <v>0.7369995</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="inlineStr">
         <is>
-          <t>reach</t>
+          <t>fool</t>
         </is>
       </c>
       <c r="B36" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>4.842407</v>
+        <v>1.140961</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="inlineStr">
         <is>
-          <t>would</t>
+          <t>bat</t>
         </is>
       </c>
       <c r="B37" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>1.809265</v>
+        <v>1.106445</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="inlineStr">
         <is>
-          <t>itch</t>
+          <t>would</t>
         </is>
       </c>
       <c r="B38" s="0" t="b">
         <v>0</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>1.204163</v>
+        <v>0.7840576</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="inlineStr">
         <is>
-          <t>full</t>
+          <t>fond</t>
         </is>
       </c>
       <c r="B39" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>1.641357</v>
+        <v>0.2690735</v>
       </c>
     </row>
     <row r="40">
@@ -12004,218 +13042,946 @@
         </is>
       </c>
       <c r="B40" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>9.753235</v>
+        <v>5.226227</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="inlineStr">
         <is>
-          <t>mat</t>
+          <t>ten</t>
         </is>
       </c>
       <c r="B41" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>2.567993</v>
+        <v>0.5937195</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>cooed</t>
         </is>
       </c>
       <c r="B42" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>0.2918091</v>
+        <v>0.3694458</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>shooed</t>
         </is>
       </c>
       <c r="B43" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>3.612122</v>
+        <v>0.04537964</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="inlineStr">
         <is>
-          <t>ten</t>
+          <t>could</t>
         </is>
       </c>
       <c r="B44" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>0.9214478</v>
+        <v>0.4104919</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="inlineStr">
         <is>
-          <t>pup</t>
+          <t>tan</t>
         </is>
       </c>
       <c r="B45" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>3.469177</v>
+        <v>1.593506</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="inlineStr">
         <is>
-          <t>pop</t>
+          <t>mat</t>
         </is>
       </c>
       <c r="B46" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>0.7059936999999999</v>
+        <v>0.8287048</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="inlineStr">
         <is>
-          <t>sub</t>
+          <t>sat</t>
         </is>
       </c>
       <c r="B47" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>1.088806</v>
+        <v>0.21521</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="inlineStr">
         <is>
-          <t>hut</t>
+          <t>bot</t>
         </is>
       </c>
       <c r="B48" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>1.292725</v>
+        <v>0.571228</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="inlineStr">
         <is>
-          <t>nut</t>
+          <t>fund</t>
         </is>
       </c>
       <c r="B49" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>0.664856</v>
+        <v>0.508728</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="inlineStr">
         <is>
-          <t>pet</t>
+          <t>pool</t>
         </is>
       </c>
       <c r="B50" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>5.237854</v>
+        <v>1.266754</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="inlineStr">
         <is>
-          <t>should</t>
+          <t>wooed</t>
         </is>
       </c>
       <c r="B51" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>1.441833</v>
+        <v>0.5906067</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="inlineStr">
         <is>
-          <t>field</t>
+          <t>itch</t>
         </is>
       </c>
       <c r="B52" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>3.379028</v>
+        <v>0.07409668</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="inlineStr">
         <is>
-          <t>scene</t>
+          <t>pull</t>
         </is>
       </c>
       <c r="B53" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>0.4440308</v>
+        <v>1.371918</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="inlineStr">
         <is>
-          <t>cooed</t>
+          <t>each</t>
         </is>
       </c>
       <c r="B54" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>0.3869019</v>
+        <v>-0.7748413</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="inlineStr">
         <is>
-          <t>pull</t>
+          <t>reach</t>
         </is>
       </c>
       <c r="B55" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>1.417419</v>
+        <v>5.739685</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="inlineStr">
         <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>6.044037</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>0.5627003</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>0.4898796</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>0.7828636</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>0.7255173</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>0.9526520000000001</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>2.103088</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>1.407928</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>2.792656</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>1.794724</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>0.3878403</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>-0.4253769</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>1.985527</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>1.62204</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>1.682838</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>1.258881</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>1.55864</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>2.350632</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>1.175018</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>2.499847</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>0.5074005</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>1.70755</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>1.079102</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>1.121094</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>3.578293</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>0.8487549</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>1.975494</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>1.286377</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>1.060272</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>0.97789</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>2.813965</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>2.301407</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>0.8830109</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>0.8494568</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>0.4740601</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>0.7515868999999999</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>0.787262</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>1.52063</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>1.254822</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>0.6264954</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>0.6366577</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>1.41391</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>1.444366</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>1.426727</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>1.36084</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>0.6315307999999999</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>0.7694702</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>0.6914978000000001</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>2.185425</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>0.3867798</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>0.8360596</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
           <t>met</t>
         </is>
       </c>
-      <c r="B56" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="C56" s="0" t="n">
-        <v>2.01825</v>
+      <c r="B107" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>1.345306</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>1.258148</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>1.762543</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>1.578644</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>5.301117</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>5.812622</v>
       </c>
     </row>
   </sheetData>
@@ -12231,8 +13997,8 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -12240,17 +14006,17 @@
     <row r="1">
       <c r="A1" s="0" t="inlineStr">
         <is>
-          <t>each</t>
+          <t>itch</t>
         </is>
       </c>
       <c r="B1" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>bot</t>
+          <t>each</t>
         </is>
       </c>
       <c r="B2" s="0" t="b">
@@ -12270,7 +14036,7 @@
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>itch</t>
+          <t>pool</t>
         </is>
       </c>
       <c r="B4" s="0" t="b">
@@ -12280,7 +14046,7 @@
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>pool</t>
+          <t>but</t>
         </is>
       </c>
       <c r="B5" s="0" t="b">
@@ -12290,7 +14056,7 @@
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>pull</t>
+          <t>bot</t>
         </is>
       </c>
       <c r="B6" s="0" t="b">
@@ -12304,17 +14070,17 @@
         </is>
       </c>
       <c r="B7" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>but</t>
+          <t>pull</t>
         </is>
       </c>
       <c r="B8" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/VR Karting/Results/514.xlsx
+++ b/VR Karting/Results/514.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3100" yWindow="760" windowWidth="22960" windowHeight="19160" tabRatio="600" firstSheet="0" activeTab="8" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3100" yWindow="760" windowWidth="22960" windowHeight="19160" tabRatio="600" firstSheet="0" activeTab="10" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="PRE" sheetId="1" state="visible" r:id="rId1"/>
@@ -15,13 +15,15 @@
     <sheet name="Mini 5" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="Session 6" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="Mini 6" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Session 1" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Mini 1" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Mini 2" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Word Accuracies" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Mini 3" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="MID" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Contrast Accuracies" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Session 7" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Mini 7" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Session 1" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Mini 1" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Mini 2" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Word Accuracies" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Mini 3" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="MID" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Contrast Accuracies" sheetId="18" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -1587,6 +1589,1580 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:C112"/>
+  <sheetViews>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>0.8586197</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0.568428</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1.110329</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.6061554</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>2.108879</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1.092232</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.8432617</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.6780167</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.8790817</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.8103561</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>1.047226</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>1.243958</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>1.031784</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>1.172958</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0.6270142</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1.489594</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>-0.4771423</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0.1548157</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>1.861267</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0.5310211</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>0.7160034</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>3.091934</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>5.231781</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0.6964110999999999</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>4.947403</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>0.7602692</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>1.586273</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>1.807892</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>1.027283</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0.9977722</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>0.7799682999999999</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>5.55658</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>0.7329102</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>1.096893</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>0.684845</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0.4875183</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>0.9297791</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0.1901855</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>0.01797485</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>0.7338257</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>0.4616394</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>1.539032</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>0.277832</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>5.763153</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>0.07598877</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>-0.4571838</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>1.937012</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>0.3775024</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>5.570313</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>0.7967834</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>1.81723</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>-0.4837646</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>5.074127</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>4.636322</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>4.978943</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>5.117401</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>0.556015</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>0.6452065</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>1.030434</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>0.7307396</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>1.006275</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>0.6141052</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>1.300491</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>0.6527557</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>1.258049</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>1.259773</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>0.8375320000000001</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>0.9427261</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>2.071312</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>5.570793</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>0.3345032</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>0.5042267</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>1.01947</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>0.8825684</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>1.039566</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>1.447159</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>0.3917694</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>0.3372955</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>0.4139252</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>2.029221</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>6.33522</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>0.3707581</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>1.145798</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>0.7454376</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>0.6351166</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>1.628021</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>2.304062</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>1.750076</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>1.249329</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>1.013489</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>0.7371826</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>1.23111</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>0.5310364</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>1.170258</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>2.386932</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>1.343292</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>0.540863</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>1.496155</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>1.305756</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>0.8934326</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>0.9647827</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>5.368805</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>0.9353027</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>1.436035</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>0.5112915</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>1.00589</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>0.8357239</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>-0.1413879</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>1.468536</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>0.4854126</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>1.108521</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>0.8841248</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
@@ -2328,7 +3904,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2427,7 +4003,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2526,13 +4102,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2576,6 +4152,11 @@
           <t>Session 6</t>
         </is>
       </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Session 7</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
@@ -2601,6 +4182,9 @@
       <c r="G2" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H2" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
@@ -2626,6 +4210,9 @@
       <c r="G3" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H3" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
@@ -2651,6 +4238,9 @@
       <c r="G4" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="H4" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
@@ -2676,6 +4266,9 @@
       <c r="G5" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="H5" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
@@ -2701,6 +4294,9 @@
       <c r="G6" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="H6" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
@@ -2726,6 +4322,9 @@
       <c r="G7" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H7" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
@@ -2751,6 +4350,9 @@
       <c r="G8" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="H8" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
@@ -2776,6 +4378,9 @@
       <c r="G9" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="H9" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
@@ -2801,6 +4406,9 @@
       <c r="G10" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H10" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
@@ -2826,6 +4434,9 @@
       <c r="G11" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H11" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
@@ -2851,6 +4462,9 @@
       <c r="G12" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="H12" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
@@ -2876,6 +4490,9 @@
       <c r="G13" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H13" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="inlineStr">
@@ -2901,6 +4518,9 @@
       <c r="G14" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H14" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="inlineStr">
@@ -2926,6 +4546,9 @@
       <c r="G15" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H15" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="inlineStr">
@@ -2951,6 +4574,9 @@
       <c r="G16" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="H16" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="inlineStr">
@@ -2976,6 +4602,9 @@
       <c r="G17" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="H17" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="inlineStr">
@@ -3001,6 +4630,9 @@
       <c r="G18" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="H18" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="inlineStr">
@@ -3026,6 +4658,9 @@
       <c r="G19" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H19" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="inlineStr">
@@ -3051,6 +4686,9 @@
       <c r="G20" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H20" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="inlineStr">
@@ -3076,6 +4714,9 @@
       <c r="G21" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H21" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="inlineStr">
@@ -3101,6 +4742,9 @@
       <c r="G22" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="H22" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="inlineStr">
@@ -3126,6 +4770,9 @@
       <c r="G23" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="H23" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="inlineStr">
@@ -3151,6 +4798,9 @@
       <c r="G24" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="H24" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="inlineStr">
@@ -3176,6 +4826,9 @@
       <c r="G25" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H25" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="inlineStr">
@@ -3201,6 +4854,9 @@
       <c r="G26" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H26" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="inlineStr">
@@ -3226,6 +4882,9 @@
       <c r="G27" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="H27" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="inlineStr">
@@ -3251,6 +4910,9 @@
       <c r="G28" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="H28" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="inlineStr">
@@ -3276,6 +4938,9 @@
       <c r="G29" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="H29" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="inlineStr">
@@ -3301,6 +4966,9 @@
       <c r="G30" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H30" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="inlineStr">
@@ -3326,6 +4994,9 @@
       <c r="G31" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H31" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="inlineStr">
@@ -3351,6 +5022,9 @@
       <c r="G32" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="H32" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="inlineStr">
@@ -3376,6 +5050,9 @@
       <c r="G33" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H33" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="inlineStr">
@@ -3401,6 +5078,9 @@
       <c r="G34" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="H34" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="inlineStr">
@@ -3426,6 +5106,9 @@
       <c r="G35" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H35" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="inlineStr">
@@ -3451,6 +5134,9 @@
       <c r="G36" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H36" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="inlineStr">
@@ -3476,6 +5162,9 @@
       <c r="G37" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H37" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="inlineStr">
@@ -3501,6 +5190,9 @@
       <c r="G38" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H38" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="inlineStr">
@@ -3526,6 +5218,9 @@
       <c r="G39" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="H39" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="inlineStr">
@@ -3551,6 +5246,9 @@
       <c r="G40" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H40" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="inlineStr">
@@ -3576,6 +5274,9 @@
       <c r="G41" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="H41" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="inlineStr">
@@ -3601,6 +5302,9 @@
       <c r="G42" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H42" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="inlineStr">
@@ -3626,6 +5330,9 @@
       <c r="G43" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H43" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="inlineStr">
@@ -3651,6 +5358,9 @@
       <c r="G44" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="H44" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="inlineStr">
@@ -3676,6 +5386,9 @@
       <c r="G45" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H45" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="inlineStr">
@@ -3701,6 +5414,9 @@
       <c r="G46" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H46" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="inlineStr">
@@ -3726,6 +5442,9 @@
       <c r="G47" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H47" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="inlineStr">
@@ -3751,6 +5470,9 @@
       <c r="G48" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H48" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="inlineStr">
@@ -3776,6 +5498,9 @@
       <c r="G49" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H49" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="inlineStr">
@@ -3801,6 +5526,9 @@
       <c r="G50" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H50" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="inlineStr">
@@ -3826,6 +5554,9 @@
       <c r="G51" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H51" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="inlineStr">
@@ -3851,6 +5582,9 @@
       <c r="G52" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="H52" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="inlineStr">
@@ -3876,6 +5610,9 @@
       <c r="G53" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H53" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="inlineStr">
@@ -3901,6 +5638,9 @@
       <c r="G54" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H54" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="inlineStr">
@@ -3926,6 +5666,9 @@
       <c r="G55" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H55" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="inlineStr">
@@ -3951,6 +5694,9 @@
       <c r="G56" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H56" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="inlineStr">
@@ -3975,6 +5721,9 @@
       </c>
       <c r="G57" s="0" t="n">
         <v>0.5</v>
+      </c>
+      <c r="H57" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3982,7 +5731,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4081,7 +5830,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6260,13 +8009,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6310,6 +8059,11 @@
           <t>Session 6</t>
         </is>
       </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Session 7</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -6335,6 +8089,9 @@
       <c r="G2" t="n">
         <v>0.7857142857142857</v>
       </c>
+      <c r="H2" t="n">
+        <v>0.8214285714285714</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -6360,6 +8117,9 @@
       <c r="G3" t="n">
         <v>0.6428571428571429</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.6428571428571429</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -6385,6 +8145,9 @@
       <c r="G4" t="n">
         <v>0.8928571428571429</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.7857142857142857</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -6409,6 +8172,9 @@
       </c>
       <c r="G5" t="n">
         <v>0.7142857142857143</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.7857142857142857</v>
       </c>
     </row>
   </sheetData>
@@ -13997,7 +15763,7 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
